--- a/biology/Botanique/Conobea/Conobea.xlsx
+++ b/biology/Botanique/Conobea/Conobea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conobea est un genre végétal de la famille des Plantaginaceae (Scrophulariaceae selon l'ancienne classification classique de Cronquist (1981)[2]). L'espèce type est Conobea aquatica Aubl..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conobea est un genre végétal de la famille des Plantaginaceae (Scrophulariaceae selon l'ancienne classification classique de Cronquist (1981)). L'espèce type est Conobea aquatica Aubl..
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Conobea regroupe des plantes herbacées dressées à prostrée, à tiges cylindriques ou quadrangulaires. Les feuilles sont opposées, sessiles ou pétiolées, crénelées à dentelées, palmées ou pennées. L'inflorescence se compose de fleurs ou de grappes solitaires à l'aisselle des feuilles. On compte 1 ou 2 bractées à l'apex du pédicelle ou insérées à la base du calice, qui sont beaucoup plus courtes que les segments du calice, qui comporte 5 sépales égaux ou subégaux, quasiment séparés jusqu'à leur base. La corolle est bilabiée, avec 5 lobes. La lèvre supérieure est externe lorsque la fleur est en bouton, le palais pubescent. Les 4 étamines sont didynames, et les anthères ont deux thèques. Le style est ramifié et les stigmates se sont aplatis. Le fruit est une capsule globuleuse, septicide et loculicide à 4 valves, et à masse placentaire autoportante. Les nombreuses graines, sont nervurées longitudinalement et parfois avec des parois transversales légèrement réticulées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Conobea regroupe des plantes herbacées dressées à prostrée, à tiges cylindriques ou quadrangulaires. Les feuilles sont opposées, sessiles ou pétiolées, crénelées à dentelées, palmées ou pennées. L'inflorescence se compose de fleurs ou de grappes solitaires à l'aisselle des feuilles. On compte 1 ou 2 bractées à l'apex du pédicelle ou insérées à la base du calice, qui sont beaucoup plus courtes que les segments du calice, qui comporte 5 sépales égaux ou subégaux, quasiment séparés jusqu'à leur base. La corolle est bilabiée, avec 5 lobes. La lèvre supérieure est externe lorsque la fleur est en bouton, le palais pubescent. Les 4 étamines sont didynames, et les anthères ont deux thèques. Le style est ramifié et les stigmates se sont aplatis. Le fruit est une capsule globuleuse, septicide et loculicide à 4 valves, et à masse placentaire autoportante. Les nombreuses graines, sont nervurées longitudinalement et parfois avec des parois transversales légèrement réticulées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « CONOBEA. (Tabula 258.)
 CAL. Perianthium monophyllum, quinquedentatum, denticulis acutis, intrà duo folia oppoſita, oblonga, acuta, ſurffultum. 
 COR. monopetala, ringens, tubus oblongus, ſenſim ampliatus; limbus bilabiatus, limbo ſuperiori etecto, emarginato, inreriori trifido, lobo intermedio latiori, concavo, lateralibus brevioribus. 
@@ -580,15 +596,89 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon (en) Référence The Plant List : Conobea  (consulté le 9 décembre 2021) :
-Taxons valides
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conobea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conobea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Conobea aquatica Aubl.
 Conobea polystachya Minod
 Conobea punctata Nees &amp; Mart.
 Conobea scoparioides (Cham. &amp; Schltdl.) Benth.
-Taxon non résolu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conobea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conobea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxon non résolu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Conobea viscosa Spreng.
 </t>
         </is>
